--- a/data/trans_bre/P12A1_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>83,61%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>9,74%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>93,57%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11,08%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,22 +720,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,86</t>
+          <t>0,0; 3,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 4,93</t>
+          <t>-0,94; 1,65</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 2,73</t>
+          <t>-1,01; 0,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,16; 9,6</t>
+          <t>0,0; 2,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +755,27 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-74,71; 517,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-4,96</t>
+          <t>-1,99</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-9,7</t>
+          <t>-3,04</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-13,48</t>
+          <t>-2,49</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>-1,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-38,05%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-52,14%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-50,07%</t>
+          <t>-56,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>36,64%</t>
+          <t>-73,34%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-58,19%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>-23,59%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,5; 5,61</t>
+          <t>-8,5; 0,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,5; 1,81</t>
+          <t>-9,08; -0,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-34,05; 1,82</t>
+          <t>-7,78; 0,09</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 12,59</t>
+          <t>-11,58; 2,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-92,19; 129,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-87,2; 27,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-81,95; 16,05</t>
+          <t>-100,0; 66,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-57,57; 360,29</t>
+          <t>-95,54; -0,78</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-85,98; 10,25</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-85,71; 123,75</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9,68</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-12,85%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,03%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>19,91%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>37,9%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>44,36%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-36,35%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,22 +1000,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 11,45</t>
+          <t>-1,61; 1,86</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,69; 15,21</t>
+          <t>-1,09; 1,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 13,86</t>
+          <t>-0,73; 1,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,38; 21,6</t>
+          <t>-2,8; 1,01</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,15 +1025,35 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-69,46; 457,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-69,26; 425,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-77,61; 633,49</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-65,71; 606,77</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-84,25; 142,61</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -910,7 +1062,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,9</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,79</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-7,42</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,35</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-32,52%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-41,2%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-48,14%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,05%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>316,32%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-16,49; 3,35</t>
+          <t>-0,4; 0,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-15,03; 1,87</t>
+          <t>0,23; 2,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-19,58; -0,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 7,72</t>
+          <t>-0,24; 3,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-84,23; 81,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-77,59; 38,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-78,08; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 197,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,71</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-1,12</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-30,3%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-40,41%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>-47,92%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-9,13%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-1,96; 0,46</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 0,32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 0,14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 1,08</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-80,94; 91,43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-78,96; 40,56</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-80,3; 10,83</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-69,7; 89,33</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P12A1_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,211 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,41</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,42</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>93,57%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>11,08%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="n">
+        <v>1.009587553968223</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.3566248318854928</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.02887555027478554</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.4192405300375733</v>
+      </c>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.7905228920183464</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.09202996235878937</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 3,59</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-0,94; 1,65</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 0,71</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,54</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.027803640729503</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.9970161682096274</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="inlineStr"/>
+      <c r="K5" s="6" t="inlineStr"/>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.577353271486289</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.51548951568848</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.6813818589203849</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>2.639235911798309</v>
+      </c>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-1,99</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,04</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,49</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,21</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-56,76%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-73,34%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-58,19%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-23,59%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,5; 0,75</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,08; -0,38</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-7,78; 0,09</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,58; 2,51</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 66,09</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-95,54; -0,78</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-85,98; 10,25</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-85,71; 123,75</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="n">
+        <v>-1.725049944353063</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-2.775878354074696</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-2.437531185688934</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-1.1707638247903</v>
+      </c>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="6" t="n">
+        <v>-0.5195142277103337</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.7133691103452072</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.5737923930981685</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>-0.2280598550390156</v>
+      </c>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,09</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,73</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>9,14%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>37,9%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>44,36%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-36,35%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-7.818885113137561</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.327334681236927</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.763163958845537</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.96213825188127</v>
+      </c>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.9435535552590554</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.8520424181411516</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.8587078609809832</v>
+      </c>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,61; 1,86</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 1,82</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-0,73; 1,57</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-2,8; 1,01</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-77,61; 633,49</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-65,71; 606,77</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-84,25; 142,61</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.949976815232635</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>-0.3229676318344305</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.06883680483020588</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>2.572192246443752</v>
+      </c>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>0.8026720121998018</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.04663413222009141</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1019688930025831</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.314211723757537</v>
+      </c>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +871,230 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,01</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1,23</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,14%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>316,32%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>0.1503904970772119</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3380314305815847</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3840112186356289</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.7223544759961873</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>0.1559691482618097</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.3536198094792131</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.4864094910476994</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.3500503130360511</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,4; 0,63</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,23; 2,2</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-0,24; 3,74</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.433917126182924</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.103013563469123</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.6857778668568335</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-2.848051780512737</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.7895024452827989</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.6326196402109788</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.8337724917087379</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.86979565748088</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.836893732054025</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.65669413189266</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.072310671357549</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>6.121553736667169</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>6.118183831034898</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.5182352856973</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,38</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,12</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-30,3%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-40,41%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-47,92%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-9,13%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-1,96; 0,46</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-2,64; 0,32</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,35; 0,14</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,69; 1,08</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-80,94; 91,43</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-78,96; 40,56</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-80,3; 10,83</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-69,7; 89,33</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.6044204209670143</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.141312701986664</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-1.103551411343048</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.9121680469635098</v>
+      </c>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="6" t="n">
+        <v>-0.3146990247714045</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.5082787894663303</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>-0.4724732053437852</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.2943144103333325</v>
+      </c>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-3.758778247646428</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-3.342661290578106</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-3.335601701351629</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-6.246009315335567</v>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="6" t="n">
+        <v>-0.8566247197952387</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.8075654329717644</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.7992355642573591</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.7956832540885259</v>
+      </c>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.786670339951464</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2530671497621225</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1144928244551438</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.8703838894758719</v>
+      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="6" t="n">
+        <v>0.8943033343828628</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.3219282727992906</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.09483910668664795</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.5027083115543782</v>
+      </c>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
